--- a/160411_90SF評価(160420_追記).xlsx
+++ b/160411_90SF評価(160420_追記).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10884"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10872"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>kV</t>
     <phoneticPr fontId="1"/>
@@ -162,6 +162,10 @@
     <rPh sb="4" eb="5">
       <t>バン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rtest</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -278,6 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,7 +292,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -592,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q29"/>
+  <dimension ref="B2:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:H14"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -640,25 +644,25 @@
     <row r="5" spans="2:17">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="1" t="s">
@@ -867,20 +871,20 @@
     <row r="14" spans="2:17">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="1" t="s">
@@ -1013,14 +1017,14 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>3</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
         <v>3</v>
       </c>
       <c r="J20" s="1"/>
@@ -1045,25 +1049,25 @@
     <row r="24" spans="2:17">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="1" t="s">
@@ -1250,6 +1254,11 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
